--- a/family-care-reimbursement-form.xlsx
+++ b/family-care-reimbursement-form.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -51,34 +51,34 @@
     <t>Amount</t>
   </si>
   <si>
-    <t xml:space="preserve">DSE Summit </t>
-  </si>
-  <si>
     <t>Family Care Reimbursement Form</t>
   </si>
   <si>
-    <t xml:space="preserve">New York, NY  October 23 - 26, 2016 </t>
-  </si>
-  <si>
     <t>Description of family care</t>
   </si>
   <si>
-    <t>Wed 26 Oct</t>
-  </si>
-  <si>
-    <t>Tue 25 Oct</t>
-  </si>
-  <si>
-    <t>Mon 24 Oct</t>
-  </si>
-  <si>
-    <t>Sun 26 Oct</t>
-  </si>
-  <si>
     <t>Family Care covers up to $75 per day the summit is attended</t>
   </si>
   <si>
     <t>Date (dropdown)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSDSE Summit </t>
+  </si>
+  <si>
+    <t>Wed Nov 8</t>
+  </si>
+  <si>
+    <t>Sun Nov 5</t>
+  </si>
+  <si>
+    <t>Mon Nov 6</t>
+  </si>
+  <si>
+    <t>Tue Nov 7</t>
+  </si>
+  <si>
+    <t>New Orleans, LA, November 5 - 8, 2017</t>
   </si>
 </sst>
 </file>
@@ -326,62 +326,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,75 +682,75 @@
   <sheetData>
     <row r="1" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="B2" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="B4" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -758,23 +758,23 @@
       <c r="B7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -785,42 +785,42 @@
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
       <c r="I12" s="1"/>
       <c r="K12" s="14"/>
     </row>
@@ -835,31 +835,31 @@
       <c r="H13" s="19"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:11" s="37" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="35"/>
+    <row r="14" spans="1:11" s="21" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20"/>
+      <c r="B14" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="16" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="23"/>
+        <v>8</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="17" t="s">
         <v>6</v>
       </c>
@@ -868,11 +868,11 @@
     <row r="16" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="33"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="9">
         <f t="shared" ref="H16:H19" si="0">SUM(C16:G16)</f>
         <v>0</v>
@@ -882,11 +882,11 @@
     <row r="17" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="18"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="33"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -896,11 +896,11 @@
     <row r="18" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="33"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -910,11 +910,11 @@
     <row r="19" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="33"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -965,11 +965,9 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="C5:H5"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="C10:H10"/>
@@ -979,9 +977,11 @@
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="C12:H12"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1005,29 +1005,29 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
